--- a/dd files.xlsx
+++ b/dd files.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>DW Account No</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>2018-19</t>
+  </si>
+  <si>
+    <t>Dec.2010</t>
   </si>
 </sst>
 </file>
@@ -863,7 +866,7 @@
   <dimension ref="C3:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="15.75" thickBot="1">
